--- a/dataset/高等教育毕业率.xlsx
+++ b/dataset/高等教育毕业率.xlsx
@@ -38,11 +38,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="0.0_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -68,6 +69,64 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -75,15 +134,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -97,23 +166,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -127,79 +198,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -214,13 +215,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -232,19 +323,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -256,85 +353,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -346,55 +389,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -423,28 +424,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -453,7 +443,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -482,17 +472,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -514,9 +513,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -528,10 +529,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -540,137 +541,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -679,6 +680,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1002,7 +1006,7 @@
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="5"/>
@@ -1047,19 +1051,33 @@
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1"/>
+      <c r="C2" s="1">
+        <v>58.8</v>
+      </c>
       <c r="D2" s="1">
-        <v>39.4</v>
+        <v>59</v>
       </c>
       <c r="E2" s="1">
-        <v>40.4</v>
-      </c>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
+        <v>59.5</v>
+      </c>
+      <c r="F2" s="1">
+        <v>59.8</v>
+      </c>
+      <c r="G2" s="1">
+        <v>60</v>
+      </c>
+      <c r="H2" s="1">
+        <v>59.8</v>
+      </c>
+      <c r="I2" s="3">
+        <v>60</v>
+      </c>
+      <c r="J2" s="1">
+        <v>60.8</v>
+      </c>
+      <c r="K2" s="1">
+        <v>62.8</v>
+      </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="2">

--- a/dataset/高等教育毕业率.xlsx
+++ b/dataset/高等教育毕业率.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>country</t>
   </si>
@@ -28,10 +28,7 @@
     <t>Australia</t>
   </si>
   <si>
-    <t>Canada</t>
-  </si>
-  <si>
-    <t>India</t>
+    <t>Mexico</t>
   </si>
 </sst>
 </file>
@@ -39,11 +36,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="0.0_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.0_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -63,6 +60,43 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -71,7 +105,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -79,21 +120,31 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -101,34 +152,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -142,54 +165,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -198,9 +173,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -215,31 +212,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -251,151 +392,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -424,6 +421,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -435,54 +441,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -511,6 +469,45 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -529,10 +526,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -541,137 +538,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -680,6 +677,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1006,7 +1006,7 @@
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="5"/>
@@ -1069,7 +1069,7 @@
       <c r="H2" s="1">
         <v>59.8</v>
       </c>
-      <c r="I2" s="3">
+      <c r="I2" s="4">
         <v>60</v>
       </c>
       <c r="J2" s="1">
@@ -1101,10 +1101,18 @@
       <c r="G3" s="1">
         <v>52.7</v>
       </c>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
+      <c r="H3" s="1">
+        <v>51.3</v>
+      </c>
+      <c r="I3" s="1">
+        <v>53</v>
+      </c>
+      <c r="J3" s="1">
+        <v>53.5</v>
+      </c>
+      <c r="K3" s="1">
+        <v>54.2</v>
+      </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="2">
@@ -1126,47 +1134,61 @@
       <c r="G4" s="1">
         <v>72.5</v>
       </c>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
+      <c r="H4" s="1">
+        <v>72.1</v>
+      </c>
+      <c r="I4" s="1">
+        <v>73</v>
+      </c>
+      <c r="J4" s="1">
+        <v>73.2</v>
+      </c>
+      <c r="K4" s="1">
+        <v>73.5</v>
+      </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="2">
+      <c r="A5" s="3">
         <v>3</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
+      <c r="C5" s="1">
+        <v>17.4</v>
+      </c>
+      <c r="D5" s="1">
+        <v>18.6</v>
+      </c>
       <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
+      <c r="F5" s="1">
+        <v>20.3</v>
+      </c>
+      <c r="G5" s="1">
+        <v>21.2</v>
+      </c>
+      <c r="H5" s="1">
+        <v>22</v>
+      </c>
+      <c r="I5" s="1">
+        <v>23.1</v>
+      </c>
+      <c r="J5" s="1">
+        <v>24.4</v>
+      </c>
+      <c r="K5" s="1">
+        <v>24</v>
+      </c>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="2">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>5</v>
-      </c>
+      <c r="A6" s="2"/>
+      <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
-      <c r="F6" s="1">
-        <v>31.2</v>
-      </c>
-      <c r="G6" s="1">
-        <v>26.4</v>
-      </c>
-      <c r="H6" s="1">
-        <v>28.7</v>
-      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
